--- a/Todd Data-3Dec2021/all sales 19-0401-21-0930 16-tab.xlsx
+++ b/Todd Data-3Dec2021/all sales 19-0401-21-0930 16-tab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richb/Documents/Projects/Tax Fairness in Lyme/Todd Data-3Dec2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8EA1797F-636B-EF4E-80F8-231452B95CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C86AEF-4DC2-C74F-A110-A6FCDFF71E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1460" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="1880" yWindow="1960" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all sales 19-0401-21-0930 16-ta" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
-  <si>
-    <t>Parcel Detail by Assessing Nbhd 12/02/2021</t>
-  </si>
-  <si>
-    <t>LYME, NH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>Intrnl ID</t>
   </si>
@@ -70,9 +61,6 @@
     <t>Abs Disp</t>
   </si>
   <si>
-    <t>Nbhd Code Area Age Age Date Price Value Ratio Ratio</t>
-  </si>
-  <si>
     <t xml:space="preserve">136 RIVER RD </t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t>Page 1</t>
   </si>
   <si>
-    <t>Intrnl ID Assessing Nbhd MBLU Location Land Use Eff Eff Sale Sale Appraised A/S S/A_ Abs Disp</t>
-  </si>
-  <si>
     <t xml:space="preserve">114 POST POND LN  </t>
   </si>
   <si>
@@ -260,27 +245,6 @@
   </si>
   <si>
     <t>Page 3</t>
-  </si>
-  <si>
-    <t>(\d\d\d\d) ([0-9,]+) ([0-9,]+) ([0-9,]+) ([/0-9]+) ([,0-9]+) ([,0-9]+) (\d\.\d\d) (\d\.\d\d) ([0-9\.]+)$</t>
-  </si>
-  <si>
-    <t>... then ...</t>
-  </si>
-  <si>
-    <t>^(\d+) (\d+) ([\d]+)[/ ]+([\d]+)[/ ]+([\d]*)[/ ]+([/ ]+) =&gt; \1</t>
-  </si>
-  <si>
-    <t>\2</t>
-  </si>
-  <si>
-    <t>\3</t>
-  </si>
-  <si>
-    <t>\4</t>
-  </si>
-  <si>
-    <t>\5</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -307,7 +271,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -787,8 +754,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1143,701 +1110,933 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="13" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>378</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>402</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>1010</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>44417</v>
+      </c>
+      <c r="L3" s="1">
+        <v>675000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>488300</v>
+      </c>
+      <c r="N3">
+        <v>0.72</v>
+      </c>
+      <c r="O3">
+        <v>1.38</v>
+      </c>
+      <c r="P3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4">
+        <v>100503</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>401</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>404</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>1021</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1072</v>
+      </c>
+      <c r="I4" s="1">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
+        <v>43693</v>
+      </c>
+      <c r="L4" s="1">
+        <v>327500</v>
+      </c>
+      <c r="M4" s="1">
+        <v>261900</v>
+      </c>
+      <c r="N4">
+        <v>0.8</v>
+      </c>
+      <c r="O4">
+        <v>1.25</v>
+      </c>
+      <c r="P4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1099</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>410</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>1010</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1731</v>
+      </c>
+      <c r="I5" s="1">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44236</v>
+      </c>
+      <c r="L5" s="1">
+        <v>525000</v>
+      </c>
+      <c r="M5" s="1">
+        <v>432400</v>
+      </c>
+      <c r="N5">
+        <v>0.82</v>
+      </c>
+      <c r="O5">
+        <v>1.21</v>
+      </c>
+      <c r="P5">
+        <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+      <c r="A6">
+        <v>753</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>407</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>1010</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3778</v>
+      </c>
+      <c r="I6" s="1">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>44421</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1230000</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1036200</v>
+      </c>
+      <c r="N6">
+        <v>0.84</v>
+      </c>
+      <c r="O6">
+        <v>1.19</v>
+      </c>
+      <c r="P6">
+        <v>0.13</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" t="s">
-        <v>87</v>
+      <c r="A7">
+        <v>375</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>402</v>
+      </c>
+      <c r="D7">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>1300</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K7" s="2">
+        <v>43917</v>
+      </c>
+      <c r="L7" s="1">
+        <v>349000</v>
+      </c>
+      <c r="M7" s="1">
+        <v>303100</v>
+      </c>
+      <c r="N7">
+        <v>0.87</v>
+      </c>
+      <c r="O7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>1010</v>
       </c>
       <c r="H8" s="1">
-        <v>2015</v>
-      </c>
-      <c r="I8">
+        <v>1461</v>
+      </c>
+      <c r="I8" s="1">
+        <v>56</v>
+      </c>
+      <c r="J8" s="1">
         <v>10</v>
       </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
       <c r="K8" s="2">
-        <v>44417</v>
+        <v>43735</v>
       </c>
       <c r="L8" s="1">
-        <v>675000</v>
+        <v>355000</v>
       </c>
       <c r="M8" s="1">
-        <v>488300</v>
+        <v>308900</v>
       </c>
       <c r="N8">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="O8">
-        <v>1.38</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P8">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>100503</v>
+        <v>716</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D9">
-        <v>55</v>
-      </c>
-      <c r="E9">
-        <v>404</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="H9" s="1">
-        <v>1072</v>
-      </c>
-      <c r="I9">
-        <v>35</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
+        <v>3798</v>
+      </c>
+      <c r="I9" s="1">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1">
+        <v>11</v>
       </c>
       <c r="K9" s="2">
-        <v>43693</v>
+        <v>44305</v>
       </c>
       <c r="L9" s="1">
-        <v>327500</v>
+        <v>700000</v>
       </c>
       <c r="M9" s="1">
-        <v>261900</v>
+        <v>610900</v>
       </c>
       <c r="N9">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="O9">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P9">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1099</v>
+        <v>100422</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="H10" s="1">
-        <v>1731</v>
-      </c>
-      <c r="I10">
-        <v>41</v>
-      </c>
-      <c r="J10">
-        <v>28</v>
+        <v>2020</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
       </c>
       <c r="K10" s="2">
-        <v>44236</v>
+        <v>44110</v>
       </c>
       <c r="L10" s="1">
-        <v>525000</v>
+        <v>500000</v>
       </c>
       <c r="M10" s="1">
-        <v>432400</v>
+        <v>451200</v>
       </c>
       <c r="N10">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="O10">
-        <v>1.21</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="P10">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>753</v>
+        <v>1096</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>1010</v>
+        <v>1090</v>
       </c>
       <c r="H11" s="1">
-        <v>3778</v>
-      </c>
-      <c r="I11">
-        <v>32</v>
-      </c>
-      <c r="J11">
-        <v>21</v>
+        <v>4710</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
       </c>
       <c r="K11" s="2">
-        <v>44421</v>
+        <v>44098</v>
       </c>
       <c r="L11" s="1">
-        <v>1230000</v>
+        <v>2575000</v>
       </c>
       <c r="M11" s="1">
-        <v>1036200</v>
+        <v>2324500</v>
       </c>
       <c r="N11">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="O11">
-        <v>1.19</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="P11">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>375</v>
+        <v>1030</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D12">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>1010</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2951</v>
+      </c>
+      <c r="I12" s="1">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1">
         <v>21</v>
       </c>
-      <c r="G12">
-        <v>1300</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2021</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2021</v>
-      </c>
       <c r="K12" s="2">
-        <v>43917</v>
+        <v>44006</v>
       </c>
       <c r="L12" s="1">
-        <v>349000</v>
+        <v>792500</v>
       </c>
       <c r="M12" s="1">
-        <v>303100</v>
+        <v>723000</v>
       </c>
       <c r="N12">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="O12">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P12">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="H13" s="1">
-        <v>1461</v>
-      </c>
-      <c r="I13">
-        <v>56</v>
-      </c>
-      <c r="J13">
-        <v>10</v>
+        <v>886</v>
+      </c>
+      <c r="I13" s="1">
+        <v>201</v>
+      </c>
+      <c r="J13" s="1">
+        <v>15</v>
       </c>
       <c r="K13" s="2">
-        <v>43735</v>
+        <v>44414</v>
       </c>
       <c r="L13" s="1">
-        <v>355000</v>
+        <v>216000</v>
       </c>
       <c r="M13" s="1">
-        <v>308900</v>
+        <v>197400</v>
       </c>
       <c r="N13">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="O13">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="P13">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>716</v>
+        <v>892</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14">
-        <v>1010</v>
+        <v>6515</v>
       </c>
       <c r="H14" s="1">
-        <v>3798</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2021</v>
       </c>
       <c r="K14" s="2">
-        <v>44305</v>
+        <v>44181</v>
       </c>
       <c r="L14" s="1">
-        <v>700000</v>
+        <v>600000</v>
       </c>
       <c r="M14" s="1">
-        <v>610900</v>
+        <v>554000</v>
       </c>
       <c r="N14">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="O14">
-        <v>1.1499999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="P14">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>100422</v>
+        <v>101262</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="D15">
-        <v>55</v>
-      </c>
-      <c r="E15">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="H15" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I15">
-        <v>40</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
+        <v>3692</v>
+      </c>
+      <c r="I15" s="1">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1">
+        <v>11</v>
       </c>
       <c r="K15" s="2">
-        <v>44110</v>
+        <v>44046</v>
       </c>
       <c r="L15" s="1">
-        <v>500000</v>
+        <v>702000</v>
       </c>
       <c r="M15" s="1">
-        <v>451200</v>
+        <v>649200</v>
       </c>
       <c r="N15">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="O15">
-        <v>1.1100000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="P15">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1096</v>
+        <v>1196</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>1010</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3770</v>
+      </c>
+      <c r="I16" s="1">
         <v>33</v>
       </c>
-      <c r="E16">
-        <v>1000</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="J16" s="1">
         <v>25</v>
       </c>
-      <c r="G16">
-        <v>1090</v>
-      </c>
-      <c r="H16" s="1">
-        <v>4710</v>
-      </c>
-      <c r="I16">
-        <v>14</v>
-      </c>
-      <c r="J16">
-        <v>9</v>
-      </c>
       <c r="K16" s="2">
-        <v>44098</v>
+        <v>43955</v>
       </c>
       <c r="L16" s="1">
-        <v>2575000</v>
+        <v>525000</v>
       </c>
       <c r="M16" s="1">
-        <v>2324500</v>
+        <v>494300</v>
       </c>
       <c r="N16">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="O16">
-        <v>1.1100000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="P16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1030</v>
+        <v>100522</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D17">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>501</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="H17" s="1">
-        <v>2951</v>
-      </c>
-      <c r="I17">
-        <v>27</v>
-      </c>
-      <c r="J17">
-        <v>21</v>
+        <v>970</v>
+      </c>
+      <c r="I17" s="1">
+        <v>36</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
       </c>
       <c r="K17" s="2">
-        <v>44006</v>
+        <v>43587</v>
       </c>
       <c r="L17" s="1">
-        <v>792500</v>
+        <v>195000</v>
       </c>
       <c r="M17" s="1">
-        <v>723000</v>
+        <v>184400</v>
       </c>
       <c r="N17">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O17">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="P17">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>51</v>
+        <v>1255</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>201</v>
+        <v>414</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
       </c>
       <c r="G18">
-        <v>1021</v>
-      </c>
-      <c r="H18">
-        <v>886</v>
-      </c>
-      <c r="I18">
-        <v>201</v>
-      </c>
-      <c r="J18">
-        <v>15</v>
+        <v>1010</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3483</v>
+      </c>
+      <c r="I18" s="1">
+        <v>28</v>
+      </c>
+      <c r="J18" s="1">
+        <v>21</v>
       </c>
       <c r="K18" s="2">
-        <v>44414</v>
+        <v>44083</v>
       </c>
       <c r="L18" s="1">
-        <v>216000</v>
+        <v>550000</v>
       </c>
       <c r="M18" s="1">
-        <v>197400</v>
+        <v>521300</v>
       </c>
       <c r="N18">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O18">
-        <v>1.0900000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="P18">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>892</v>
+        <v>1101</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D19">
-        <v>48</v>
-      </c>
-      <c r="E19">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
       </c>
       <c r="G19">
-        <v>6515</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>1010</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2140</v>
       </c>
       <c r="I19" s="1">
-        <v>2021</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1">
-        <v>2021</v>
+        <v>27</v>
       </c>
       <c r="K19" s="2">
-        <v>44181</v>
+        <v>43656</v>
       </c>
       <c r="L19" s="1">
-        <v>600000</v>
+        <v>320000</v>
       </c>
       <c r="M19" s="1">
-        <v>554000</v>
+        <v>303900</v>
       </c>
       <c r="N19">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O19">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P19">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>101262</v>
+        <v>381</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D20">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
@@ -1846,2445 +2045,2092 @@
         <v>1010</v>
       </c>
       <c r="H20" s="1">
-        <v>3692</v>
-      </c>
-      <c r="I20">
-        <v>16</v>
-      </c>
-      <c r="J20">
-        <v>11</v>
+        <v>1072</v>
+      </c>
+      <c r="I20" s="1">
+        <v>73</v>
+      </c>
+      <c r="J20" s="1">
+        <v>28</v>
       </c>
       <c r="K20" s="2">
-        <v>44046</v>
+        <v>43990</v>
       </c>
       <c r="L20" s="1">
-        <v>702000</v>
+        <v>190000</v>
       </c>
       <c r="M20" s="1">
-        <v>649200</v>
+        <v>180800</v>
       </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O20">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P20">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1196</v>
+        <v>688</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
       </c>
       <c r="G21">
-        <v>1010</v>
+        <v>1060</v>
       </c>
       <c r="H21" s="1">
-        <v>3770</v>
-      </c>
-      <c r="I21">
-        <v>33</v>
-      </c>
-      <c r="J21">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2021</v>
       </c>
       <c r="K21" s="2">
-        <v>43955</v>
+        <v>44145</v>
       </c>
       <c r="L21" s="1">
-        <v>525000</v>
+        <v>50000</v>
       </c>
       <c r="M21" s="1">
-        <v>494300</v>
+        <v>47600</v>
       </c>
       <c r="N21">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="O21">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P21">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>100522</v>
+        <v>702</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D22">
-        <v>55</v>
-      </c>
-      <c r="E22">
-        <v>501</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G22">
-        <v>1021</v>
-      </c>
-      <c r="H22">
-        <v>970</v>
-      </c>
-      <c r="I22">
-        <v>36</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
+        <v>1010</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2167</v>
+      </c>
+      <c r="I22" s="1">
+        <v>171</v>
+      </c>
+      <c r="J22" s="1">
+        <v>15</v>
       </c>
       <c r="K22" s="2">
-        <v>43587</v>
+        <v>44014</v>
       </c>
       <c r="L22" s="1">
-        <v>195000</v>
+        <v>382000</v>
       </c>
       <c r="M22" s="1">
-        <v>184400</v>
+        <v>365500</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O22">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P22">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1255</v>
+        <v>398</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D23">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="H23" s="1">
-        <v>3483</v>
-      </c>
-      <c r="I23">
-        <v>28</v>
-      </c>
-      <c r="J23">
-        <v>21</v>
+        <v>4671</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
       </c>
       <c r="K23" s="2">
-        <v>44083</v>
+        <v>44432</v>
       </c>
       <c r="L23" s="1">
-        <v>550000</v>
+        <v>2500000</v>
       </c>
       <c r="M23" s="1">
-        <v>521300</v>
+        <v>2398500</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O23">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P23">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1101</v>
+        <v>217</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1100</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24">
-        <v>1010</v>
+        <v>6234</v>
       </c>
       <c r="H24" s="1">
-        <v>2140</v>
-      </c>
-      <c r="I24">
-        <v>37</v>
-      </c>
-      <c r="J24">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2021</v>
       </c>
       <c r="K24" s="2">
-        <v>43656</v>
+        <v>43965</v>
       </c>
       <c r="L24" s="1">
-        <v>320000</v>
+        <v>496533</v>
       </c>
       <c r="M24" s="1">
-        <v>303900</v>
+        <v>476800</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P24">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>381</v>
+        <v>964</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D25">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25">
-        <v>1010</v>
+        <v>1300</v>
       </c>
       <c r="H25" s="1">
-        <v>1072</v>
-      </c>
-      <c r="I25">
-        <v>73</v>
-      </c>
-      <c r="J25">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2021</v>
       </c>
       <c r="K25" s="2">
-        <v>43990</v>
+        <v>43879</v>
       </c>
       <c r="L25" s="1">
-        <v>190000</v>
+        <v>218700</v>
       </c>
       <c r="M25" s="1">
-        <v>180800</v>
+        <v>211200</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>688</v>
+        <v>891</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>2000</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26">
-        <v>1060</v>
-      </c>
-      <c r="H26">
+        <v>1010</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3348</v>
+      </c>
+      <c r="I26" s="1">
+        <v>27</v>
+      </c>
+      <c r="J26" s="1">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2">
+        <v>44301</v>
+      </c>
+      <c r="L26" s="1">
+        <v>617000</v>
+      </c>
+      <c r="M26" s="1">
+        <v>596500</v>
+      </c>
+      <c r="N26">
+        <v>0.97</v>
+      </c>
+      <c r="O26">
+        <v>1.03</v>
+      </c>
+      <c r="P26">
         <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>2021</v>
-      </c>
-      <c r="J26" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K26" s="2">
-        <v>44145</v>
-      </c>
-      <c r="L26" s="1">
-        <v>50000</v>
-      </c>
-      <c r="M26" s="1">
-        <v>47600</v>
-      </c>
-      <c r="N26">
-        <v>0.95</v>
-      </c>
-      <c r="O26">
-        <v>1.05</v>
-      </c>
-      <c r="P26">
-        <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>702</v>
+        <v>518</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D27">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>1010</v>
       </c>
       <c r="H27" s="1">
-        <v>2167</v>
-      </c>
-      <c r="I27">
-        <v>171</v>
-      </c>
-      <c r="J27">
+        <v>2604</v>
+      </c>
+      <c r="I27" s="1">
+        <v>46</v>
+      </c>
+      <c r="J27" s="1">
         <v>15</v>
       </c>
       <c r="K27" s="2">
-        <v>44014</v>
+        <v>44208</v>
       </c>
       <c r="L27" s="1">
-        <v>382000</v>
+        <v>525000</v>
       </c>
       <c r="M27" s="1">
-        <v>365500</v>
+        <v>508600</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>398</v>
+        <v>625</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="H28" s="1">
-        <v>4671</v>
-      </c>
-      <c r="I28">
-        <v>7</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
+        <v>3601</v>
+      </c>
+      <c r="I28" s="1">
+        <v>218</v>
+      </c>
+      <c r="J28" s="1">
+        <v>10</v>
       </c>
       <c r="K28" s="2">
-        <v>44432</v>
+        <v>43647</v>
       </c>
       <c r="L28" s="1">
-        <v>2500000</v>
+        <v>798000</v>
       </c>
       <c r="M28" s="1">
-        <v>2398500</v>
+        <v>774200</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="D29">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>1100</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29">
-        <v>6234</v>
-      </c>
-      <c r="H29">
+        <v>1010</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2894</v>
+      </c>
+      <c r="I29" s="1">
+        <v>181</v>
+      </c>
+      <c r="J29" s="1">
+        <v>15</v>
+      </c>
+      <c r="K29" s="2">
+        <v>43586</v>
+      </c>
+      <c r="L29" s="1">
+        <v>405000</v>
+      </c>
+      <c r="M29" s="1">
+        <v>393500</v>
+      </c>
+      <c r="N29">
+        <v>0.97</v>
+      </c>
+      <c r="O29">
+        <v>1.03</v>
+      </c>
+      <c r="P29">
         <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>2021</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K29" s="2">
-        <v>43965</v>
-      </c>
-      <c r="L29" s="1">
-        <v>496533</v>
-      </c>
-      <c r="M29" s="1">
-        <v>476800</v>
-      </c>
-      <c r="N29">
-        <v>0.96</v>
-      </c>
-      <c r="O29">
-        <v>1.04</v>
-      </c>
-      <c r="P29">
-        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>964</v>
+        <v>100523</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>502</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30">
-        <v>1300</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
+        <v>1021</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1501</v>
       </c>
       <c r="I30" s="1">
-        <v>2021</v>
+        <v>36</v>
       </c>
       <c r="J30" s="1">
-        <v>2021</v>
+        <v>10</v>
       </c>
       <c r="K30" s="2">
-        <v>43879</v>
+        <v>44137</v>
       </c>
       <c r="L30" s="1">
-        <v>218700</v>
+        <v>339000</v>
       </c>
       <c r="M30" s="1">
-        <v>211200</v>
+        <v>332100</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D31">
-        <v>48</v>
-      </c>
-      <c r="E31">
-        <v>2000</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>1010</v>
       </c>
       <c r="H31" s="1">
-        <v>3348</v>
-      </c>
-      <c r="I31">
-        <v>27</v>
-      </c>
-      <c r="J31">
-        <v>23</v>
+        <v>1471</v>
+      </c>
+      <c r="I31" s="1">
+        <v>56</v>
+      </c>
+      <c r="J31" s="1">
+        <v>15</v>
       </c>
       <c r="K31" s="2">
-        <v>44301</v>
+        <v>43948</v>
       </c>
       <c r="L31" s="1">
-        <v>617000</v>
+        <v>299000</v>
       </c>
       <c r="M31" s="1">
-        <v>596500</v>
+        <v>293100</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>518</v>
+        <v>380</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D32">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>1010</v>
       </c>
       <c r="H32" s="1">
-        <v>2604</v>
-      </c>
-      <c r="I32">
-        <v>46</v>
-      </c>
-      <c r="J32">
-        <v>15</v>
+        <v>1678</v>
+      </c>
+      <c r="I32" s="1">
+        <v>59</v>
+      </c>
+      <c r="J32" s="1">
+        <v>20</v>
       </c>
       <c r="K32" s="2">
-        <v>44208</v>
+        <v>43917</v>
       </c>
       <c r="L32" s="1">
-        <v>525000</v>
+        <v>349000</v>
       </c>
       <c r="M32" s="1">
-        <v>508600</v>
+        <v>342200</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>625</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>406</v>
-      </c>
-      <c r="D33">
-        <v>22</v>
-      </c>
-      <c r="E33">
-        <v>1000</v>
-      </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33">
-        <v>1010</v>
-      </c>
-      <c r="H33" s="1">
-        <v>3601</v>
-      </c>
-      <c r="I33">
-        <v>218</v>
-      </c>
-      <c r="J33">
-        <v>10</v>
-      </c>
-      <c r="K33" s="2">
-        <v>43647</v>
-      </c>
-      <c r="L33" s="1">
-        <v>798000</v>
-      </c>
-      <c r="M33" s="1">
-        <v>774200</v>
-      </c>
-      <c r="N33">
-        <v>0.97</v>
-      </c>
-      <c r="O33">
-        <v>1.03</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
+      <c r="A33" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>127</v>
+        <v>855</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>201</v>
+        <v>408</v>
       </c>
       <c r="D34">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="H34" s="1">
-        <v>2894</v>
-      </c>
-      <c r="I34">
-        <v>181</v>
-      </c>
-      <c r="J34">
-        <v>15</v>
+        <v>569</v>
+      </c>
+      <c r="I34" s="1">
+        <v>101</v>
+      </c>
+      <c r="J34" s="1">
+        <v>10</v>
       </c>
       <c r="K34" s="2">
-        <v>43586</v>
+        <v>44153</v>
       </c>
       <c r="L34" s="1">
-        <v>405000</v>
+        <v>175000</v>
       </c>
       <c r="M34" s="1">
-        <v>393500</v>
+        <v>171600</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>100523</v>
+        <v>698</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D35">
-        <v>55</v>
-      </c>
-      <c r="E35">
-        <v>502</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="H35" s="1">
-        <v>1501</v>
-      </c>
-      <c r="I35">
-        <v>36</v>
-      </c>
-      <c r="J35">
+        <v>4230</v>
+      </c>
+      <c r="I35" s="1">
+        <v>46</v>
+      </c>
+      <c r="J35" s="1">
         <v>10</v>
       </c>
       <c r="K35" s="2">
-        <v>44137</v>
+        <v>44036</v>
       </c>
       <c r="L35" s="1">
-        <v>339000</v>
+        <v>675733</v>
       </c>
       <c r="M35" s="1">
-        <v>332100</v>
+        <v>665700</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
         <v>1.02</v>
       </c>
       <c r="P35">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>323</v>
+        <v>201</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>1000</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36">
         <v>1010</v>
       </c>
       <c r="H36" s="1">
-        <v>1471</v>
-      </c>
-      <c r="I36">
-        <v>56</v>
-      </c>
-      <c r="J36">
-        <v>15</v>
+        <v>2860</v>
+      </c>
+      <c r="I36" s="1">
+        <v>240</v>
+      </c>
+      <c r="J36" s="1">
+        <v>20</v>
       </c>
       <c r="K36" s="2">
-        <v>43948</v>
+        <v>44217</v>
       </c>
       <c r="L36" s="1">
-        <v>299000</v>
+        <v>580000</v>
       </c>
       <c r="M36" s="1">
-        <v>293100</v>
+        <v>574400</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O36">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P36">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>380</v>
+        <v>974</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D37">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <v>1010</v>
       </c>
       <c r="H37" s="1">
-        <v>1678</v>
-      </c>
-      <c r="I37">
+        <v>3951</v>
+      </c>
+      <c r="I37" s="1">
+        <v>29</v>
+      </c>
+      <c r="J37" s="1">
+        <v>23</v>
+      </c>
+      <c r="K37" s="2">
+        <v>43978</v>
+      </c>
+      <c r="L37" s="1">
+        <v>735000</v>
+      </c>
+      <c r="M37" s="1">
+        <v>729100</v>
+      </c>
+      <c r="N37">
+        <v>0.99</v>
+      </c>
+      <c r="O37">
+        <v>1.01</v>
+      </c>
+      <c r="P37">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1055</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>409</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38">
+        <v>6124</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K38" s="2">
+        <v>43965</v>
+      </c>
+      <c r="L38" s="1">
+        <v>328900</v>
+      </c>
+      <c r="M38" s="1">
+        <v>327000</v>
+      </c>
+      <c r="N38">
+        <v>0.99</v>
+      </c>
+      <c r="O38">
+        <v>1.01</v>
+      </c>
+      <c r="P38">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1449</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>420</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39">
+        <v>1013</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1221</v>
+      </c>
+      <c r="I39" s="1">
+        <v>71</v>
+      </c>
+      <c r="J39" s="1">
+        <v>28</v>
+      </c>
+      <c r="K39" s="2">
+        <v>44014</v>
+      </c>
+      <c r="L39" s="1">
+        <v>333000</v>
+      </c>
+      <c r="M39" s="1">
+        <v>335600</v>
+      </c>
+      <c r="N39">
+        <v>1.01</v>
+      </c>
+      <c r="O39">
+        <v>0.99</v>
+      </c>
+      <c r="P39">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>313</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>402</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40">
+        <v>1010</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4236</v>
+      </c>
+      <c r="I40" s="1">
+        <v>48</v>
+      </c>
+      <c r="J40" s="1">
+        <v>15</v>
+      </c>
+      <c r="K40" s="2">
+        <v>44028</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1325000</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1337000</v>
+      </c>
+      <c r="N40">
+        <v>1.01</v>
+      </c>
+      <c r="O40">
+        <v>0.99</v>
+      </c>
+      <c r="P40">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>546</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>405</v>
+      </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>1010</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1573</v>
+      </c>
+      <c r="I41" s="1">
+        <v>51</v>
+      </c>
+      <c r="J41" s="1">
+        <v>35</v>
+      </c>
+      <c r="K41" s="2">
+        <v>44151</v>
+      </c>
+      <c r="L41" s="1">
+        <v>329900</v>
+      </c>
+      <c r="M41" s="1">
+        <v>332900</v>
+      </c>
+      <c r="N41">
+        <v>1.01</v>
+      </c>
+      <c r="O41">
+        <v>0.99</v>
+      </c>
+      <c r="P41">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>489</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>404</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42">
+        <v>1013</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2922</v>
+      </c>
+      <c r="I42" s="1">
+        <v>171</v>
+      </c>
+      <c r="J42" s="1">
+        <v>20</v>
+      </c>
+      <c r="K42" s="2">
+        <v>43564</v>
+      </c>
+      <c r="L42" s="1">
+        <v>473000</v>
+      </c>
+      <c r="M42" s="1">
+        <v>479200</v>
+      </c>
+      <c r="N42">
+        <v>1.01</v>
+      </c>
+      <c r="O42">
+        <v>0.99</v>
+      </c>
+      <c r="P42">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>765</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>407</v>
+      </c>
+      <c r="D43">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43">
+        <v>1010</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3095</v>
+      </c>
+      <c r="I43" s="1">
+        <v>229</v>
+      </c>
+      <c r="J43" s="1">
+        <v>15</v>
+      </c>
+      <c r="K43" s="2">
+        <v>44104</v>
+      </c>
+      <c r="L43" s="1">
+        <v>527500</v>
+      </c>
+      <c r="M43" s="1">
+        <v>536100</v>
+      </c>
+      <c r="N43">
+        <v>1.02</v>
+      </c>
+      <c r="O43">
+        <v>0.98</v>
+      </c>
+      <c r="P43">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1150</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>411</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44">
+        <v>1010</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1823</v>
+      </c>
+      <c r="I44" s="1">
+        <v>43</v>
+      </c>
+      <c r="J44" s="1">
+        <v>20</v>
+      </c>
+      <c r="K44" s="2">
+        <v>43641</v>
+      </c>
+      <c r="L44" s="1">
+        <v>375000</v>
+      </c>
+      <c r="M44" s="1">
+        <v>385800</v>
+      </c>
+      <c r="N44">
+        <v>1.03</v>
+      </c>
+      <c r="O44">
+        <v>0.97</v>
+      </c>
+      <c r="P44">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>183</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>201</v>
+      </c>
+      <c r="D45">
+        <v>133</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45">
+        <v>1060</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K45" s="2">
+        <v>44168</v>
+      </c>
+      <c r="L45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="M45" s="1">
+        <v>103000</v>
+      </c>
+      <c r="N45">
+        <v>1.03</v>
+      </c>
+      <c r="O45">
+        <v>0.97</v>
+      </c>
+      <c r="P45">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>815</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>407</v>
+      </c>
+      <c r="D46">
+        <v>123</v>
+      </c>
+      <c r="F46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46">
+        <v>1090</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3251</v>
+      </c>
+      <c r="I46" s="1">
+        <v>53</v>
+      </c>
+      <c r="J46" s="1">
+        <v>35</v>
+      </c>
+      <c r="K46" s="2">
+        <v>44018</v>
+      </c>
+      <c r="L46" s="1">
+        <v>608000</v>
+      </c>
+      <c r="M46" s="1">
+        <v>630700</v>
+      </c>
+      <c r="N46">
+        <v>1.04</v>
+      </c>
+      <c r="O46">
+        <v>0.96</v>
+      </c>
+      <c r="P46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1094</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>410</v>
+      </c>
+      <c r="D47">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47">
+        <v>1010</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2453</v>
+      </c>
+      <c r="I47" s="1">
+        <v>47</v>
+      </c>
+      <c r="J47" s="1">
+        <v>28</v>
+      </c>
+      <c r="K47" s="2">
+        <v>44272</v>
+      </c>
+      <c r="L47" s="1">
+        <v>405000</v>
+      </c>
+      <c r="M47" s="1">
+        <v>420500</v>
+      </c>
+      <c r="N47">
+        <v>1.04</v>
+      </c>
+      <c r="O47">
+        <v>0.96</v>
+      </c>
+      <c r="P47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>949</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>409</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48">
+        <v>1010</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4515</v>
+      </c>
+      <c r="I48" s="1">
+        <v>209</v>
+      </c>
+      <c r="J48" s="1">
+        <v>24</v>
+      </c>
+      <c r="K48" s="2">
+        <v>43969</v>
+      </c>
+      <c r="L48" s="1">
+        <v>730000</v>
+      </c>
+      <c r="M48" s="1">
+        <v>770500</v>
+      </c>
+      <c r="N48">
+        <v>1.06</v>
+      </c>
+      <c r="O48">
+        <v>0.95</v>
+      </c>
+      <c r="P48">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1039</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>409</v>
+      </c>
+      <c r="D49">
+        <v>84</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49">
+        <v>1300</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2021</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K49" s="2">
+        <v>44274</v>
+      </c>
+      <c r="L49" s="1">
+        <v>400000</v>
+      </c>
+      <c r="M49" s="1">
+        <v>422400</v>
+      </c>
+      <c r="N49">
+        <v>1.06</v>
+      </c>
+      <c r="O49">
+        <v>0.95</v>
+      </c>
+      <c r="P49">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1144</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>410</v>
+      </c>
+      <c r="D50">
+        <v>80</v>
+      </c>
+      <c r="F50" t="s">
         <v>59</v>
       </c>
-      <c r="J37">
-        <v>20</v>
-      </c>
-      <c r="K37" s="2">
-        <v>43917</v>
-      </c>
-      <c r="L37" s="1">
-        <v>349000</v>
-      </c>
-      <c r="M37" s="1">
-        <v>342200</v>
-      </c>
-      <c r="N37">
-        <v>0.98</v>
-      </c>
-      <c r="O37">
-        <v>1.02</v>
-      </c>
-      <c r="P37">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>2</v>
+      <c r="G50">
+        <v>1010</v>
+      </c>
+      <c r="H50" s="1">
+        <v>4391</v>
+      </c>
+      <c r="I50" s="1">
+        <v>31</v>
+      </c>
+      <c r="J50" s="1">
+        <v>23</v>
+      </c>
+      <c r="K50" s="2">
+        <v>44001</v>
+      </c>
+      <c r="L50" s="1">
+        <v>606700</v>
+      </c>
+      <c r="M50" s="1">
+        <v>646400</v>
+      </c>
+      <c r="N50">
+        <v>1.07</v>
+      </c>
+      <c r="O50">
+        <v>0.94</v>
+      </c>
+      <c r="P50">
+        <v>0.1</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>47</v>
+      <c r="A51">
+        <v>720</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>407</v>
+      </c>
+      <c r="D51">
+        <v>56</v>
+      </c>
+      <c r="E51">
+        <v>1000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51">
+        <v>1010</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1691</v>
+      </c>
+      <c r="I51" s="1">
+        <v>91</v>
+      </c>
+      <c r="J51" s="1">
+        <v>24</v>
+      </c>
+      <c r="K51" s="2">
+        <v>43817</v>
+      </c>
+      <c r="L51" s="1">
+        <v>359000</v>
+      </c>
+      <c r="M51" s="1">
+        <v>388200</v>
+      </c>
+      <c r="N51">
+        <v>1.08</v>
+      </c>
+      <c r="O51">
+        <v>0.92</v>
+      </c>
+      <c r="P51">
+        <v>0.11</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>16</v>
+      <c r="A52">
+        <v>600</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>406</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52">
+        <v>1010</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2155</v>
+      </c>
+      <c r="I52" s="1">
+        <v>42</v>
+      </c>
+      <c r="J52" s="1">
+        <v>28</v>
+      </c>
+      <c r="K52" s="2">
+        <v>44173</v>
+      </c>
+      <c r="L52" s="1">
+        <v>240500</v>
+      </c>
+      <c r="M52" s="1">
+        <v>261800</v>
+      </c>
+      <c r="N52">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.92</v>
+      </c>
+      <c r="P52">
+        <v>0.12</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>855</v>
+        <v>100182</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="E53">
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G53">
-        <v>1013</v>
-      </c>
-      <c r="H53">
-        <v>569</v>
-      </c>
-      <c r="I53">
-        <v>101</v>
-      </c>
-      <c r="J53">
+        <v>1021</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1720</v>
+      </c>
+      <c r="I53" s="1">
+        <v>36</v>
+      </c>
+      <c r="J53" s="1">
         <v>10</v>
       </c>
       <c r="K53" s="2">
-        <v>44153</v>
+        <v>43662</v>
       </c>
       <c r="L53" s="1">
-        <v>175000</v>
+        <v>345000</v>
       </c>
       <c r="M53" s="1">
-        <v>171600</v>
+        <v>377100</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O53">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="P53">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>698</v>
+        <v>446</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D54">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>1000</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G54">
         <v>1010</v>
       </c>
       <c r="H54" s="1">
-        <v>4230</v>
-      </c>
-      <c r="I54">
-        <v>46</v>
-      </c>
-      <c r="J54">
-        <v>10</v>
+        <v>4286</v>
+      </c>
+      <c r="I54" s="1">
+        <v>241</v>
+      </c>
+      <c r="J54" s="1">
+        <v>28</v>
       </c>
       <c r="K54" s="2">
-        <v>44036</v>
+        <v>43885</v>
       </c>
       <c r="L54" s="1">
-        <v>675733</v>
+        <v>695000</v>
       </c>
       <c r="M54" s="1">
-        <v>665700</v>
+        <v>761900</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O54">
-        <v>1.02</v>
+        <v>0.91</v>
       </c>
       <c r="P54">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D55">
-        <v>13</v>
-      </c>
-      <c r="E55">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>1010</v>
       </c>
       <c r="H55" s="1">
-        <v>2860</v>
-      </c>
-      <c r="I55">
-        <v>240</v>
-      </c>
-      <c r="J55">
-        <v>20</v>
+        <v>3377</v>
+      </c>
+      <c r="I55" s="1">
+        <v>57</v>
+      </c>
+      <c r="J55" s="1">
+        <v>28</v>
       </c>
       <c r="K55" s="2">
-        <v>44217</v>
+        <v>43747</v>
       </c>
       <c r="L55" s="1">
-        <v>580000</v>
+        <v>475000</v>
       </c>
       <c r="M55" s="1">
-        <v>574400</v>
+        <v>620200</v>
       </c>
       <c r="N55">
-        <v>0.99</v>
+        <v>1.31</v>
       </c>
       <c r="O55">
-        <v>1.01</v>
+        <v>0.77</v>
       </c>
       <c r="P55">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>974</v>
+        <v>103057</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D56">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G56">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="H56" s="1">
-        <v>3951</v>
-      </c>
-      <c r="I56">
-        <v>29</v>
-      </c>
-      <c r="J56">
-        <v>23</v>
+        <v>3136</v>
+      </c>
+      <c r="I56" s="1">
+        <v>22</v>
+      </c>
+      <c r="J56" s="1">
+        <v>15</v>
       </c>
       <c r="K56" s="2">
-        <v>43978</v>
+        <v>43955</v>
       </c>
       <c r="L56" s="1">
-        <v>735000</v>
+        <v>649500</v>
       </c>
       <c r="M56" s="1">
-        <v>729100</v>
+        <v>657800</v>
       </c>
       <c r="N56">
+        <v>1.01</v>
+      </c>
+      <c r="O56">
         <v>0.99</v>
       </c>
-      <c r="O56">
-        <v>1.01</v>
-      </c>
       <c r="P56">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1055</v>
+        <v>575</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D57">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G57">
-        <v>6124</v>
-      </c>
-      <c r="H57">
+        <v>1013</v>
+      </c>
+      <c r="H57" s="1">
+        <v>4786</v>
+      </c>
+      <c r="I57" s="1">
+        <v>38</v>
+      </c>
+      <c r="J57" s="1">
+        <v>10</v>
+      </c>
+      <c r="K57" s="2">
+        <v>44109</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1950000</v>
+      </c>
+      <c r="M57" s="1">
+        <v>1993400</v>
+      </c>
+      <c r="N57">
+        <v>1.02</v>
+      </c>
+      <c r="O57">
+        <v>0.98</v>
+      </c>
+      <c r="P57">
         <v>0</v>
-      </c>
-      <c r="I57" s="1">
-        <v>2021</v>
-      </c>
-      <c r="J57" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K57" s="2">
-        <v>43965</v>
-      </c>
-      <c r="L57" s="1">
-        <v>328900</v>
-      </c>
-      <c r="M57" s="1">
-        <v>327000</v>
-      </c>
-      <c r="N57">
-        <v>0.99</v>
-      </c>
-      <c r="O57">
-        <v>1.01</v>
-      </c>
-      <c r="P57">
-        <v>0.02</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1449</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>420</v>
+        <v>201</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G58">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="H58" s="1">
-        <v>1221</v>
-      </c>
-      <c r="I58">
-        <v>71</v>
-      </c>
-      <c r="J58">
-        <v>28</v>
+        <v>5478</v>
+      </c>
+      <c r="I58" s="1">
+        <v>241</v>
+      </c>
+      <c r="J58" s="1">
+        <v>10</v>
       </c>
       <c r="K58" s="2">
-        <v>44014</v>
+        <v>43748</v>
       </c>
       <c r="L58" s="1">
-        <v>333000</v>
+        <v>985000</v>
       </c>
       <c r="M58" s="1">
-        <v>335600</v>
+        <v>964700</v>
       </c>
       <c r="N58">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="P58">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>313</v>
+        <v>737</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D59">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="E59">
+        <v>4000</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G59">
         <v>1010</v>
       </c>
       <c r="H59" s="1">
-        <v>4236</v>
-      </c>
-      <c r="I59">
-        <v>48</v>
-      </c>
-      <c r="J59">
+        <v>4603</v>
+      </c>
+      <c r="I59" s="1">
+        <v>22</v>
+      </c>
+      <c r="J59" s="1">
         <v>15</v>
       </c>
       <c r="K59" s="2">
-        <v>44028</v>
+        <v>44137</v>
       </c>
       <c r="L59" s="1">
-        <v>1325000</v>
+        <v>1500000</v>
       </c>
       <c r="M59" s="1">
-        <v>1337000</v>
+        <v>1244000</v>
       </c>
       <c r="N59">
-        <v>1.01</v>
+        <v>0.83</v>
       </c>
       <c r="O59">
-        <v>0.99</v>
+        <v>1.21</v>
       </c>
       <c r="P59">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>546</v>
+        <v>736</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="E60">
+        <v>3000</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G60">
         <v>1010</v>
       </c>
       <c r="H60" s="1">
-        <v>1573</v>
-      </c>
-      <c r="I60">
-        <v>51</v>
-      </c>
-      <c r="J60">
-        <v>35</v>
+        <v>5584</v>
+      </c>
+      <c r="I60" s="1">
+        <v>21</v>
+      </c>
+      <c r="J60" s="1">
+        <v>13</v>
       </c>
       <c r="K60" s="2">
-        <v>44151</v>
+        <v>44280</v>
       </c>
       <c r="L60" s="1">
-        <v>329900</v>
+        <v>1435000</v>
       </c>
       <c r="M60" s="1">
-        <v>332900</v>
+        <v>1339400</v>
       </c>
       <c r="N60">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="O60">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="P60">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>489</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>404</v>
-      </c>
-      <c r="D61">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G61">
-        <v>1013</v>
-      </c>
-      <c r="H61" s="1">
-        <v>2922</v>
-      </c>
-      <c r="I61">
-        <v>171</v>
-      </c>
-      <c r="J61">
-        <v>20</v>
-      </c>
-      <c r="K61" s="2">
-        <v>43564</v>
-      </c>
-      <c r="L61" s="1">
-        <v>473000</v>
-      </c>
-      <c r="M61" s="1">
-        <v>479200</v>
-      </c>
-      <c r="N61">
-        <v>1.01</v>
-      </c>
-      <c r="O61">
-        <v>0.99</v>
-      </c>
-      <c r="P61">
-        <v>0.04</v>
+      <c r="A61" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>407</v>
       </c>
       <c r="D62">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G62">
         <v>1010</v>
       </c>
       <c r="H62" s="1">
-        <v>3095</v>
-      </c>
-      <c r="I62">
-        <v>229</v>
-      </c>
-      <c r="J62">
-        <v>15</v>
+        <v>6844</v>
+      </c>
+      <c r="I62" s="1">
+        <v>28</v>
+      </c>
+      <c r="J62" s="1">
+        <v>23</v>
       </c>
       <c r="K62" s="2">
-        <v>44104</v>
+        <v>44043</v>
       </c>
       <c r="L62" s="1">
-        <v>527500</v>
+        <v>1188733</v>
       </c>
       <c r="M62" s="1">
-        <v>536100</v>
+        <v>1198700</v>
       </c>
       <c r="N62">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="O62">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="P62">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1150</v>
+        <v>749</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G63">
         <v>1010</v>
       </c>
       <c r="H63" s="1">
-        <v>1823</v>
-      </c>
-      <c r="I63">
-        <v>43</v>
-      </c>
-      <c r="J63">
-        <v>20</v>
+        <v>7140</v>
+      </c>
+      <c r="I63" s="1">
+        <v>28</v>
+      </c>
+      <c r="J63" s="1">
+        <v>19</v>
       </c>
       <c r="K63" s="2">
-        <v>43641</v>
+        <v>44104</v>
       </c>
       <c r="L63" s="1">
-        <v>375000</v>
+        <v>1557500</v>
       </c>
       <c r="M63" s="1">
-        <v>385800</v>
+        <v>1651100</v>
       </c>
       <c r="N63">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="O63">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="P63">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>183</v>
+        <v>1342</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>201</v>
+        <v>415</v>
       </c>
       <c r="D64">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G64">
-        <v>1060</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
+        <v>1010</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3962</v>
       </c>
       <c r="I64" s="1">
-        <v>2021</v>
+        <v>31</v>
       </c>
       <c r="J64" s="1">
-        <v>2021</v>
+        <v>25</v>
       </c>
       <c r="K64" s="2">
-        <v>44168</v>
+        <v>43816</v>
       </c>
       <c r="L64" s="1">
-        <v>100000</v>
+        <v>675000</v>
       </c>
       <c r="M64" s="1">
-        <v>103000</v>
+        <v>686800</v>
       </c>
       <c r="N64">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="O64">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="P64">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>815</v>
+        <v>1340</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D65">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G65">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="H65" s="1">
-        <v>3251</v>
-      </c>
-      <c r="I65">
-        <v>53</v>
-      </c>
-      <c r="J65">
-        <v>35</v>
+        <v>3247</v>
+      </c>
+      <c r="I65" s="1">
+        <v>33</v>
+      </c>
+      <c r="J65" s="1">
+        <v>27</v>
       </c>
       <c r="K65" s="2">
-        <v>44018</v>
+        <v>43815</v>
       </c>
       <c r="L65" s="1">
-        <v>608000</v>
+        <v>399000</v>
       </c>
       <c r="M65" s="1">
-        <v>630700</v>
+        <v>420500</v>
       </c>
       <c r="N65">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="O65">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="P65">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1094</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>410</v>
-      </c>
-      <c r="D66">
-        <v>31</v>
-      </c>
-      <c r="F66" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66">
-        <v>1010</v>
-      </c>
-      <c r="H66" s="1">
-        <v>2453</v>
-      </c>
-      <c r="I66">
-        <v>47</v>
-      </c>
-      <c r="J66">
-        <v>28</v>
-      </c>
-      <c r="K66" s="2">
-        <v>44272</v>
-      </c>
-      <c r="L66" s="1">
-        <v>405000</v>
-      </c>
-      <c r="M66" s="1">
-        <v>420500</v>
-      </c>
-      <c r="N66">
-        <v>1.04</v>
-      </c>
-      <c r="O66">
-        <v>0.96</v>
-      </c>
-      <c r="P66">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>949</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>409</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-      <c r="F67" t="s">
-        <v>62</v>
-      </c>
-      <c r="G67">
-        <v>1010</v>
-      </c>
-      <c r="H67" s="1">
-        <v>4515</v>
-      </c>
-      <c r="I67">
-        <v>209</v>
-      </c>
-      <c r="J67">
-        <v>24</v>
-      </c>
-      <c r="K67" s="2">
-        <v>43969</v>
-      </c>
-      <c r="L67" s="1">
-        <v>730000</v>
-      </c>
-      <c r="M67" s="1">
-        <v>770500</v>
-      </c>
-      <c r="N67">
-        <v>1.06</v>
-      </c>
-      <c r="O67">
-        <v>0.95</v>
-      </c>
-      <c r="P67">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1039</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>409</v>
-      </c>
-      <c r="D68">
-        <v>84</v>
-      </c>
-      <c r="F68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68">
-        <v>1300</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>2021</v>
-      </c>
-      <c r="J68" s="1">
-        <v>2021</v>
-      </c>
-      <c r="K68" s="2">
-        <v>44274</v>
-      </c>
-      <c r="L68" s="1">
-        <v>400000</v>
-      </c>
-      <c r="M68" s="1">
-        <v>422400</v>
-      </c>
-      <c r="N68">
-        <v>1.06</v>
-      </c>
-      <c r="O68">
-        <v>0.95</v>
-      </c>
-      <c r="P68">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>1144</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>410</v>
-      </c>
-      <c r="D69">
-        <v>80</v>
-      </c>
-      <c r="F69" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69">
-        <v>1010</v>
-      </c>
-      <c r="H69" s="1">
-        <v>4391</v>
-      </c>
-      <c r="I69">
-        <v>31</v>
-      </c>
-      <c r="J69">
-        <v>23</v>
-      </c>
-      <c r="K69" s="2">
-        <v>44001</v>
-      </c>
-      <c r="L69" s="1">
-        <v>606700</v>
-      </c>
-      <c r="M69" s="1">
-        <v>646400</v>
-      </c>
-      <c r="N69">
-        <v>1.07</v>
-      </c>
-      <c r="O69">
-        <v>0.94</v>
-      </c>
-      <c r="P69">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>720</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>407</v>
-      </c>
-      <c r="D70">
-        <v>56</v>
-      </c>
-      <c r="E70">
-        <v>1000</v>
-      </c>
-      <c r="F70" t="s">
-        <v>65</v>
-      </c>
-      <c r="G70">
-        <v>1010</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1691</v>
-      </c>
-      <c r="I70">
-        <v>91</v>
-      </c>
-      <c r="J70">
-        <v>24</v>
-      </c>
-      <c r="K70" s="2">
-        <v>43817</v>
-      </c>
-      <c r="L70" s="1">
-        <v>359000</v>
-      </c>
-      <c r="M70" s="1">
-        <v>388200</v>
-      </c>
-      <c r="N70">
-        <v>1.08</v>
-      </c>
-      <c r="O70">
-        <v>0.92</v>
-      </c>
-      <c r="P70">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>600</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>406</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="F71" t="s">
-        <v>66</v>
-      </c>
-      <c r="G71">
-        <v>1010</v>
-      </c>
-      <c r="H71" s="1">
-        <v>2155</v>
-      </c>
-      <c r="I71">
-        <v>42</v>
-      </c>
-      <c r="J71">
-        <v>28</v>
-      </c>
-      <c r="K71" s="2">
-        <v>44173</v>
-      </c>
-      <c r="L71" s="1">
-        <v>240500</v>
-      </c>
-      <c r="M71" s="1">
-        <v>261800</v>
-      </c>
-      <c r="N71">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O71">
-        <v>0.92</v>
-      </c>
-      <c r="P71">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>100182</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>401</v>
-      </c>
-      <c r="D72">
-        <v>55</v>
-      </c>
-      <c r="E72">
-        <v>104</v>
-      </c>
-      <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72">
-        <v>1021</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1720</v>
-      </c>
-      <c r="I72">
-        <v>36</v>
-      </c>
-      <c r="J72">
-        <v>10</v>
-      </c>
-      <c r="K72" s="2">
-        <v>43662</v>
-      </c>
-      <c r="L72" s="1">
-        <v>345000</v>
-      </c>
-      <c r="M72" s="1">
-        <v>377100</v>
-      </c>
-      <c r="N72">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="O72">
-        <v>0.91</v>
-      </c>
-      <c r="P72">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>446</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>403</v>
-      </c>
-      <c r="D73">
-        <v>29</v>
-      </c>
-      <c r="E73">
-        <v>1000</v>
-      </c>
-      <c r="F73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73">
-        <v>1010</v>
-      </c>
-      <c r="H73" s="1">
-        <v>4286</v>
-      </c>
-      <c r="I73">
-        <v>241</v>
-      </c>
-      <c r="J73">
-        <v>28</v>
-      </c>
-      <c r="K73" s="2">
-        <v>43885</v>
-      </c>
-      <c r="L73" s="1">
-        <v>695000</v>
-      </c>
-      <c r="M73" s="1">
-        <v>761900</v>
-      </c>
-      <c r="N73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O73">
-        <v>0.91</v>
-      </c>
-      <c r="P73">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>476</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>404</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>68</v>
-      </c>
-      <c r="G74">
-        <v>1010</v>
-      </c>
-      <c r="H74" s="1">
-        <v>3377</v>
-      </c>
-      <c r="I74">
-        <v>57</v>
-      </c>
-      <c r="J74">
-        <v>28</v>
-      </c>
-      <c r="K74" s="2">
-        <v>43747</v>
-      </c>
-      <c r="L74" s="1">
-        <v>475000</v>
-      </c>
-      <c r="M74" s="1">
-        <v>620200</v>
-      </c>
-      <c r="N74">
-        <v>1.31</v>
-      </c>
-      <c r="O74">
-        <v>0.77</v>
-      </c>
-      <c r="P74">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>103057</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>407</v>
-      </c>
-      <c r="D75">
-        <v>17</v>
-      </c>
-      <c r="F75" t="s">
-        <v>69</v>
-      </c>
-      <c r="G75">
-        <v>1013</v>
-      </c>
-      <c r="H75" s="1">
-        <v>3136</v>
-      </c>
-      <c r="I75">
-        <v>22</v>
-      </c>
-      <c r="J75">
-        <v>15</v>
-      </c>
-      <c r="K75" s="2">
-        <v>43955</v>
-      </c>
-      <c r="L75" s="1">
-        <v>649500</v>
-      </c>
-      <c r="M75" s="1">
-        <v>657800</v>
-      </c>
-      <c r="N75">
-        <v>1.01</v>
-      </c>
-      <c r="O75">
-        <v>0.99</v>
-      </c>
-      <c r="P75">
         <v>0.01</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>575</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>405</v>
-      </c>
-      <c r="D76">
-        <v>35</v>
-      </c>
-      <c r="F76" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76">
-        <v>1013</v>
-      </c>
-      <c r="H76" s="1">
-        <v>4786</v>
-      </c>
-      <c r="I76">
-        <v>38</v>
-      </c>
-      <c r="J76">
-        <v>10</v>
-      </c>
-      <c r="K76" s="2">
-        <v>44109</v>
-      </c>
-      <c r="L76" s="1">
-        <v>1950000</v>
-      </c>
-      <c r="M76" s="1">
-        <v>1993400</v>
-      </c>
-      <c r="N76">
-        <v>1.02</v>
-      </c>
-      <c r="O76">
-        <v>0.98</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>57</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77">
-        <v>201</v>
-      </c>
-      <c r="D77">
-        <v>37</v>
-      </c>
-      <c r="F77" t="s">
-        <v>71</v>
-      </c>
-      <c r="G77">
-        <v>1010</v>
-      </c>
-      <c r="H77" s="1">
-        <v>5478</v>
-      </c>
-      <c r="I77">
-        <v>241</v>
-      </c>
-      <c r="J77">
-        <v>10</v>
-      </c>
-      <c r="K77" s="2">
-        <v>43748</v>
-      </c>
-      <c r="L77" s="1">
-        <v>985000</v>
-      </c>
-      <c r="M77" s="1">
-        <v>964700</v>
-      </c>
-      <c r="N77">
-        <v>0.98</v>
-      </c>
-      <c r="O77">
-        <v>1.02</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>737</v>
-      </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78">
-        <v>407</v>
-      </c>
-      <c r="D78">
-        <v>60</v>
-      </c>
-      <c r="E78">
-        <v>4000</v>
-      </c>
-      <c r="F78" t="s">
-        <v>72</v>
-      </c>
-      <c r="G78">
-        <v>1010</v>
-      </c>
-      <c r="H78" s="1">
-        <v>4603</v>
-      </c>
-      <c r="I78">
-        <v>22</v>
-      </c>
-      <c r="J78">
-        <v>15</v>
-      </c>
-      <c r="K78" s="2">
-        <v>44137</v>
-      </c>
-      <c r="L78" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="M78" s="1">
-        <v>1244000</v>
-      </c>
-      <c r="N78">
-        <v>0.83</v>
-      </c>
-      <c r="O78">
-        <v>1.21</v>
-      </c>
-      <c r="P78">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>736</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79">
-        <v>407</v>
-      </c>
-      <c r="D79">
-        <v>60</v>
-      </c>
-      <c r="E79">
-        <v>3000</v>
-      </c>
-      <c r="F79" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79">
-        <v>1010</v>
-      </c>
-      <c r="H79" s="1">
-        <v>5584</v>
-      </c>
-      <c r="I79">
-        <v>21</v>
-      </c>
-      <c r="J79">
-        <v>13</v>
-      </c>
-      <c r="K79" s="2">
-        <v>44280</v>
-      </c>
-      <c r="L79" s="1">
-        <v>1435000</v>
-      </c>
-      <c r="M79" s="1">
-        <v>1339400</v>
-      </c>
-      <c r="N79">
-        <v>0.93</v>
-      </c>
-      <c r="O79">
-        <v>1.07</v>
-      </c>
-      <c r="P79">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>750</v>
-      </c>
-      <c r="B94">
-        <v>5</v>
-      </c>
-      <c r="C94">
-        <v>407</v>
-      </c>
-      <c r="D94">
-        <v>70</v>
-      </c>
-      <c r="F94" t="s">
-        <v>75</v>
-      </c>
-      <c r="G94">
-        <v>1010</v>
-      </c>
-      <c r="H94" s="1">
-        <v>6844</v>
-      </c>
-      <c r="I94">
-        <v>28</v>
-      </c>
-      <c r="J94">
-        <v>23</v>
-      </c>
-      <c r="K94" s="2">
-        <v>44043</v>
-      </c>
-      <c r="L94" s="1">
-        <v>1188733</v>
-      </c>
-      <c r="M94" s="1">
-        <v>1198700</v>
-      </c>
-      <c r="N94">
-        <v>1.01</v>
-      </c>
-      <c r="O94">
-        <v>0.99</v>
-      </c>
-      <c r="P94">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>749</v>
-      </c>
-      <c r="B95">
-        <v>5</v>
-      </c>
-      <c r="C95">
-        <v>407</v>
-      </c>
-      <c r="D95">
-        <v>69</v>
-      </c>
-      <c r="F95" t="s">
-        <v>76</v>
-      </c>
-      <c r="G95">
-        <v>1010</v>
-      </c>
-      <c r="H95" s="1">
-        <v>7140</v>
-      </c>
-      <c r="I95">
-        <v>28</v>
-      </c>
-      <c r="J95">
-        <v>19</v>
-      </c>
-      <c r="K95" s="2">
-        <v>44104</v>
-      </c>
-      <c r="L95" s="1">
-        <v>1557500</v>
-      </c>
-      <c r="M95" s="1">
-        <v>1651100</v>
-      </c>
-      <c r="N95">
-        <v>1.06</v>
-      </c>
-      <c r="O95">
-        <v>0.94</v>
-      </c>
-      <c r="P95">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>1342</v>
-      </c>
-      <c r="B96">
-        <v>6</v>
-      </c>
-      <c r="C96">
-        <v>415</v>
-      </c>
-      <c r="D96">
-        <v>17</v>
-      </c>
-      <c r="F96" t="s">
-        <v>77</v>
-      </c>
-      <c r="G96">
-        <v>1010</v>
-      </c>
-      <c r="H96" s="1">
-        <v>3962</v>
-      </c>
-      <c r="I96">
-        <v>31</v>
-      </c>
-      <c r="J96">
-        <v>25</v>
-      </c>
-      <c r="K96" s="2">
-        <v>43816</v>
-      </c>
-      <c r="L96" s="1">
-        <v>675000</v>
-      </c>
-      <c r="M96" s="1">
-        <v>686800</v>
-      </c>
-      <c r="N96">
-        <v>1.02</v>
-      </c>
-      <c r="O96">
-        <v>0.98</v>
-      </c>
-      <c r="P96">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>1340</v>
-      </c>
-      <c r="B97">
-        <v>6</v>
-      </c>
-      <c r="C97">
-        <v>415</v>
-      </c>
-      <c r="D97">
-        <v>15</v>
-      </c>
-      <c r="F97" t="s">
-        <v>78</v>
-      </c>
-      <c r="G97">
-        <v>1080</v>
-      </c>
-      <c r="H97" s="1">
-        <v>3247</v>
-      </c>
-      <c r="I97">
-        <v>33</v>
-      </c>
-      <c r="J97">
-        <v>27</v>
-      </c>
-      <c r="K97" s="2">
-        <v>43815</v>
-      </c>
-      <c r="L97" s="1">
-        <v>399000</v>
-      </c>
-      <c r="M97" s="1">
-        <v>420500</v>
-      </c>
-      <c r="N97">
-        <v>1.05</v>
-      </c>
-      <c r="O97">
-        <v>0.95</v>
-      </c>
-      <c r="P97">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>82</v>
-      </c>
-      <c r="B106" t="s">
-        <v>83</v>
-      </c>
-      <c r="C106" t="s">
-        <v>84</v>
-      </c>
-      <c r="D106" t="s">
-        <v>85</v>
-      </c>
-      <c r="E106" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
